--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="87" activeTab="88"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="91" activeTab="91"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="2" r:id="rId1"/>
@@ -103,12 +103,13 @@
     <sheet name="Putz 428 APS" sheetId="100" r:id="rId89"/>
     <sheet name="Putz 429" sheetId="102" r:id="rId90"/>
     <sheet name="Putz 430 APS" sheetId="103" r:id="rId91"/>
-    <sheet name="Vachin Mandir 2001" sheetId="35" r:id="rId92"/>
-    <sheet name="Vachin Mandir 2002" sheetId="36" r:id="rId93"/>
-    <sheet name="Kaushal 217" sheetId="8" r:id="rId94"/>
-    <sheet name="Sheet1" sheetId="57" r:id="rId95"/>
-    <sheet name="Nerul" sheetId="80" r:id="rId96"/>
-    <sheet name="Nerul 425" sheetId="92" r:id="rId97"/>
+    <sheet name="Marfremiot 431" sheetId="104" r:id="rId92"/>
+    <sheet name="Vachin Mandir 2001" sheetId="35" r:id="rId93"/>
+    <sheet name="Vachin Mandir 2002" sheetId="36" r:id="rId94"/>
+    <sheet name="Kaushal 217" sheetId="8" r:id="rId95"/>
+    <sheet name="Sheet1" sheetId="57" r:id="rId96"/>
+    <sheet name="Nerul" sheetId="80" r:id="rId97"/>
+    <sheet name="Nerul 425" sheetId="92" r:id="rId98"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="361">
   <si>
     <t>Sr. No</t>
   </si>
@@ -1240,6 +1241,9 @@
   </si>
   <si>
     <t>Computer Screen 19", HDMI Cable, 4GB RAM (Serial Number - SV90AM3V2)</t>
+  </si>
+  <si>
+    <t>1100VA Microtek UPS with Exide Solar Battery 150 Ah</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2085,6 +2089,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2236,6 +2243,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2633,56 +2643,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="3">
         <f>SUM(G2:G3)</f>
         <v>93460</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="187"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="188"/>
       <c r="G5" s="3">
         <f>G4*9%</f>
         <v>8411.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="3">
         <f>G4*9%</f>
         <v>8411.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="187"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="188"/>
       <c r="G7" s="3">
         <f>SUM(G4:G6)</f>
         <v>110282.79999999999</v>
@@ -2789,56 +2799,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>SUM(G2:G3)</f>
         <v>60620</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G4*9%</f>
         <v>5455.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>G4*9%</f>
         <v>5455.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="7">
         <f>SUM(G4:G6)</f>
         <v>71531.600000000006</v>
@@ -2921,56 +2931,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="7">
         <f>SUM(G2)</f>
         <v>50526</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>G3*9%</f>
         <v>4547.34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G3*9%</f>
         <v>4547.34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>SUM(G3:G5)</f>
         <v>59620.679999999993</v>
@@ -3052,56 +3062,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="7">
         <f>SUM(G2)</f>
         <v>28250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>G3*9%</f>
         <v>2542.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G3*9%</f>
         <v>2542.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>SUM(G3:G5)</f>
         <v>33335</v>
@@ -3174,36 +3184,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>38000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>6840</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>44840</v>
@@ -3384,56 +3394,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="7">
         <f>SUM(G2:G6)</f>
         <v>78587</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="7">
         <f>G7*9%</f>
         <v>7072.83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="7">
         <f>G7*9%</f>
         <v>7072.83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="7">
         <f>SUM(G7:G9)</f>
         <v>92732.66</v>
@@ -3513,52 +3523,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="24">
         <f>SUM(F2)</f>
         <v>17400</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="24">
         <f>F3*9%</f>
         <v>1566</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="191"/>
       <c r="F5" s="24">
         <f>F3*9%</f>
         <v>1566</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="191"/>
       <c r="F6" s="24">
         <f>SUM(F3:F5)</f>
         <v>20532</v>
@@ -3715,56 +3725,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="26">
         <f>SUM(G2:G5)</f>
         <v>192516</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="26">
         <f>G6*9%</f>
         <v>17326.439999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="26">
         <f>G6*9%</f>
         <v>17326.439999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="26">
         <f>SUM(G6:G8)</f>
         <v>227168.88</v>
@@ -3871,56 +3881,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="28">
         <f>SUM(G2:G3)</f>
         <v>102514</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="28">
         <f>G4*9%</f>
         <v>9226.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="28">
         <f>G4*9%</f>
         <v>9226.26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="28">
         <f>SUM(G4:G6)</f>
         <v>120966.51999999999</v>
@@ -4053,56 +4063,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>11077</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>996.93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>996.93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>13070.86</v>
@@ -4212,56 +4222,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="29">
         <f>SUM(G2:G3)</f>
         <v>31665</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="29">
         <f>G4*9%</f>
         <v>2849.85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="29">
         <f>G4*9%</f>
         <v>2849.85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="29">
         <f>SUM(G4:G6)</f>
         <v>37364.699999999997</v>
@@ -4376,56 +4386,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>SUM(G2:G3)</f>
         <v>42910</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G4*9%</f>
         <v>3861.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>G4*9%</f>
         <v>3861.8999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="7">
         <f>SUM(G4:G6)</f>
         <v>50633.8</v>
@@ -4681,56 +4691,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="30">
         <f>SUM(G2:G9)</f>
         <v>186614</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
       <c r="G11" s="30">
         <f>G10*9%</f>
         <v>16795.259999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
       <c r="G12" s="30">
         <f>G10*9%</f>
         <v>16795.259999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="191"/>
       <c r="G13" s="30">
         <f>SUM(G10:G12)</f>
         <v>220204.52000000002</v>
@@ -4913,56 +4923,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="32">
         <f>SUM(G2:G6)</f>
         <v>177037</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="32">
         <f>G7*9%</f>
         <v>15933.33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="32">
         <f>G7*9%</f>
         <v>15933.33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="32">
         <f>SUM(G7:G9)</f>
         <v>208903.65999999997</v>
@@ -5047,56 +5057,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="33">
         <f>SUM(G2)</f>
         <v>7200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="33">
         <f>G3*9%</f>
         <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="33">
         <f>G3*9%</f>
         <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="33">
         <f>SUM(G3:G5)</f>
         <v>8496</v>
@@ -5168,48 +5178,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="34">
         <f>SUM(E2)</f>
         <v>8687</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="34">
         <f>E3*9%</f>
         <v>781.82999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="34">
         <f>E3*9%</f>
         <v>781.82999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="34">
         <f>SUM(E3:E5)</f>
         <v>10250.66</v>
@@ -5436,12 +5446,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="39"/>
       <c r="F10" s="36">
         <f>SUM(F2:F9)</f>
@@ -5449,12 +5459,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198"/>
       <c r="E11" s="39"/>
       <c r="F11" s="36">
         <f>F10*9%</f>
@@ -5462,12 +5472,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="198"/>
       <c r="E12" s="39"/>
       <c r="F12" s="36">
         <f>F10*9%</f>
@@ -5475,12 +5485,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="39"/>
       <c r="F13" s="36">
         <f>SUM(F10:F12)</f>
@@ -5568,56 +5578,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>315000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>28350</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>28350</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>371700</v>
@@ -5726,56 +5736,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="35">
         <f>SUM(G2:G3)</f>
         <v>31090</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="35">
         <f>G4*9%</f>
         <v>2798.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="35">
         <f>G4*9%</f>
         <v>2798.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="35">
         <f>SUM(G4:G6)</f>
         <v>36686.199999999997</v>
@@ -5956,56 +5966,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="40">
         <f>SUM(G2:G6)</f>
         <v>219740</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="40">
         <f>G7*9%</f>
         <v>19776.599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="40">
         <f>G7*9%</f>
         <v>19776.599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="40">
         <f>SUM(G7:G9)</f>
         <v>259293.2</v>
@@ -6277,59 +6287,59 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="198"/>
       <c r="E14" s="36">
         <v>1720</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="36">
         <f>SUM(E2:E13)-E14</f>
         <v>21610</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="198"/>
       <c r="E16" s="36">
         <f>E15*9%</f>
         <v>1944.8999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="198"/>
       <c r="E17" s="36">
         <f>E15*9%</f>
         <v>1944.8999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="198"/>
       <c r="E18" s="36">
         <f>SUM(E15:E17)</f>
         <v>25499.800000000003</v>
@@ -6418,48 +6428,48 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="42">
         <f>SUM(E2:E3)</f>
         <v>20170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="42">
         <f>E4*9%</f>
         <v>1815.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="42">
         <f>E4*9%</f>
         <v>1815.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
       <c r="E7" s="42">
         <f>SUM(E4:E6)</f>
         <v>23800.6</v>
@@ -6530,48 +6540,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="7">
         <f>SUM(E2)</f>
         <v>27082</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="7">
         <f>E3*9%</f>
         <v>2437.38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="7">
         <f>E3*9%</f>
         <v>2437.38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="7">
         <f>SUM(E3:E5)</f>
         <v>31956.760000000002</v>
@@ -6741,48 +6751,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="52">
         <f>SUM(E2:E2)</f>
         <v>18010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="52">
         <f>E3*9%</f>
         <v>1620.8999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="52">
         <f>E3*9%</f>
         <v>1620.8999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="52">
         <f>SUM(E3:E5)</f>
         <v>21251.800000000003</v>
@@ -6874,10 +6884,10 @@
       <c r="D5" s="38">
         <v>9900</v>
       </c>
-      <c r="E5" s="198">
+      <c r="E5" s="199">
         <v>43900</v>
       </c>
-      <c r="F5" s="198">
+      <c r="F5" s="199">
         <v>29900</v>
       </c>
     </row>
@@ -6894,8 +6904,8 @@
       <c r="D6" s="38">
         <v>19500</v>
       </c>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="38">
@@ -6910,8 +6920,8 @@
       <c r="D7" s="38">
         <v>14500</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
     </row>
     <row r="8" spans="1:6" ht="31.2">
       <c r="A8" s="38">
@@ -6923,11 +6933,11 @@
       <c r="C8" s="38">
         <v>1</v>
       </c>
-      <c r="D8" s="201">
+      <c r="D8" s="202">
         <v>3500</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="38">
@@ -6939,11 +6949,11 @@
       <c r="C9" s="38">
         <v>1</v>
       </c>
-      <c r="D9" s="201">
+      <c r="D9" s="202">
         <v>2500</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
     </row>
     <row r="10" spans="1:6" ht="31.2">
       <c r="A10" s="38">
@@ -6955,11 +6965,11 @@
       <c r="C10" s="38">
         <v>1</v>
       </c>
-      <c r="D10" s="201">
+      <c r="D10" s="202">
         <v>4000</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="46" t="s">
@@ -6971,20 +6981,20 @@
       <c r="C11" s="38">
         <v>1</v>
       </c>
-      <c r="D11" s="201">
+      <c r="D11" s="202">
         <v>1500</v>
       </c>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
       <c r="F12" s="36">
         <f>F5+D8+D9+D10+D11</f>
         <v>41400</v>
@@ -7179,12 +7189,12 @@
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6" ht="15.6">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="198"/>
       <c r="E24" s="36">
         <f>SUM(E16:E23)</f>
         <v>17670</v>
@@ -7347,56 +7357,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="49">
         <f>SUM(G2:G3)</f>
         <v>37773</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="49">
         <f>G4*9%</f>
         <v>3399.5699999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="49">
         <f>G4*9%</f>
         <v>3399.5699999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="49">
         <f>SUM(G4:G6)</f>
         <v>44572.14</v>
@@ -7497,52 +7507,52 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="51">
         <f>SUM(F2:F3)</f>
         <v>1950</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
       <c r="F5" s="50">
         <f>F4*9%</f>
         <v>175.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
       <c r="F6" s="50">
         <f>F4*9%</f>
         <v>175.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
       <c r="F7" s="50">
         <f>SUM(F4:F6)</f>
         <v>2301</v>
@@ -7624,56 +7634,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="54">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="54">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="54">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="54">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -7758,56 +7768,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>9703</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>873.27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>873.27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>11449.54</v>
@@ -8061,72 +8071,72 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="64">
         <f>SUM(E2:E12)</f>
         <v>54040</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="64">
         <f>E13*7.48%</f>
         <v>4042.1920000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="64">
         <f>E13-E14</f>
         <v>49997.807999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="209" t="s">
+      <c r="A16" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="57">
         <f>E15*9%</f>
         <v>4499.8027199999997</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="209"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="57">
         <f>E15*9%</f>
         <v>4499.8027199999997</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="207"/>
       <c r="E18" s="65">
         <f>SUM(E15:E17)</f>
         <v>58997.413439999997</v>
@@ -8224,56 +8234,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>34000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>3060</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>3060</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>40120</v>
@@ -8384,56 +8394,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>66837</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>6015.33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>6015.33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>78867.66</v>
@@ -8487,56 +8497,56 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
       <c r="G12" s="69">
         <f>SUM(G11)</f>
         <v>16842</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="191"/>
       <c r="G13" s="69">
         <f>G12*9%</f>
         <v>1515.78</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="190"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
       <c r="G14" s="69">
         <f>G12*9%</f>
         <v>1515.78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="190"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
       <c r="G15" s="69">
         <f>SUM(G12:G14)</f>
         <v>19873.559999999998</v>
@@ -8645,48 +8655,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="70">
         <f>SUM(E2:E4)</f>
         <v>1850</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="70">
         <f>E5*9%</f>
         <v>166.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
       <c r="E7" s="70">
         <f>E5*9%</f>
         <v>166.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
       <c r="E8" s="70">
         <f>SUM(E5:E7)</f>
         <v>2183</v>
@@ -8849,56 +8859,56 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>SUM(G2:G5)</f>
         <v>394198</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="7">
         <f>G6*9%</f>
         <v>35477.82</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="7">
         <f>G6*9%</f>
         <v>35477.82</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="7">
         <f>SUM(G6:G8)</f>
         <v>465153.64</v>
@@ -9081,56 +9091,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="73">
         <f>SUM(G2:G6)</f>
         <v>95916</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="73">
         <f>G7*9%</f>
         <v>8632.44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="73">
         <f>G7*9%</f>
         <v>8632.44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="73">
         <f>SUM(G7:G9)</f>
         <v>113180.88</v>
@@ -9242,56 +9252,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="74">
         <f>SUM(G2:G3)</f>
         <v>87870</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="74">
         <f>G4*9%</f>
         <v>7908.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="74">
         <f>G4*9%</f>
         <v>7908.2999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="74">
         <f>SUM(G4:G6)</f>
         <v>103686.6</v>
@@ -9383,10 +9393,10 @@
       <c r="D5" s="38">
         <v>9900</v>
       </c>
-      <c r="E5" s="198">
+      <c r="E5" s="199">
         <v>43900</v>
       </c>
-      <c r="F5" s="198">
+      <c r="F5" s="199">
         <v>29900</v>
       </c>
     </row>
@@ -9403,8 +9413,8 @@
       <c r="D6" s="38">
         <v>19500</v>
       </c>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1">
       <c r="A7" s="38">
@@ -9419,8 +9429,8 @@
       <c r="D7" s="38">
         <v>14500</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
       <c r="A8" s="38">
@@ -9432,11 +9442,11 @@
       <c r="C8" s="38">
         <v>1</v>
       </c>
-      <c r="D8" s="201">
+      <c r="D8" s="202">
         <v>3500</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="16.8" customHeight="1">
       <c r="A9" s="38">
@@ -9448,11 +9458,11 @@
       <c r="C9" s="38">
         <v>1</v>
       </c>
-      <c r="D9" s="201">
+      <c r="D9" s="202">
         <v>2500</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="71">
@@ -9464,20 +9474,20 @@
       <c r="C10" s="38">
         <v>1</v>
       </c>
-      <c r="D10" s="201">
+      <c r="D10" s="202">
         <v>1500</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
       <c r="F11" s="72">
         <f>F5+D8+D9+D10</f>
         <v>37400</v>
@@ -9691,12 +9701,12 @@
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:11" ht="15.6">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="198"/>
       <c r="E24" s="72">
         <f>SUM(E15:E23)</f>
         <v>17615</v>
@@ -9801,11 +9811,11 @@
       <c r="C33" s="63">
         <v>1</v>
       </c>
-      <c r="D33" s="210">
+      <c r="D33" s="211">
         <v>4000</v>
       </c>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="213"/>
       <c r="I33" s="8">
         <f>4000*18%</f>
         <v>720</v>
@@ -9900,56 +9910,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="75">
         <f>SUM(G2:G2)</f>
         <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="75">
         <f>G3*9%</f>
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="75">
         <f>G3*9%</f>
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="75">
         <f>SUM(G3:G5)</f>
         <v>1888</v>
@@ -10055,12 +10065,12 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77">
         <f>SUM(F2:F3)</f>
@@ -10399,48 +10409,48 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="215"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
       <c r="E18" s="82">
         <f>SUM(E2:E17)</f>
         <v>2279250</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="82">
         <f>E18*9%</f>
         <v>205132.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
       <c r="E20" s="82">
         <f>E18*9%</f>
         <v>205132.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6">
-      <c r="A21" s="213" t="s">
+      <c r="A21" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="214"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="215"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
       <c r="E21" s="82">
         <f>SUM(E18:E20)</f>
         <v>2689515</v>
@@ -10474,7 +10484,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10539,48 +10549,48 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="55">
         <f>SUM(E2:E3)</f>
         <v>19090</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="55">
         <f>E4*9%</f>
         <v>1718.1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="55">
         <f>E4*9%</f>
         <v>1718.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
       <c r="E7" s="55">
         <f>SUM(E4:E6)</f>
         <v>22526.199999999997</v>
@@ -10841,56 +10851,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="91">
         <f>SUM(G2:G9)</f>
         <v>828915</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
       <c r="G11" s="91">
         <f>G10*9%</f>
         <v>74602.349999999991</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
       <c r="G12" s="91">
         <f>G10*9%</f>
         <v>74602.349999999991</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="191"/>
       <c r="G13" s="91">
         <f>SUM(G10:G12)</f>
         <v>978119.7</v>
@@ -11002,56 +11012,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="84">
         <f>SUM(G2:G3)</f>
         <v>54999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="84">
         <f>G4*9%</f>
         <v>4949.91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="84">
         <f>G4*9%</f>
         <v>4949.91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="84">
         <f>SUM(G4:G6)</f>
         <v>64898.820000000007</v>
@@ -11395,48 +11405,48 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="215"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
       <c r="E18" s="82">
         <f>SUM(E2:E17)</f>
         <v>2279250</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="82">
         <f>E18*9%</f>
         <v>205132.5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
       <c r="E20" s="82">
         <f>E18*9%</f>
         <v>205132.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="213" t="s">
+      <c r="A21" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="214"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="215"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
       <c r="E21" s="82">
         <f>SUM(E18:E20)</f>
         <v>2689515</v>
@@ -11731,12 +11741,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="213" t="s">
+      <c r="A39" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="214"/>
-      <c r="C39" s="214"/>
-      <c r="D39" s="215"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="216"/>
       <c r="E39" s="82">
         <f>SUM(E24:E38)</f>
         <v>2129250</v>
@@ -11747,12 +11757,12 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="213" t="s">
+      <c r="A40" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="214"/>
-      <c r="C40" s="214"/>
-      <c r="D40" s="215"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="215"/>
+      <c r="D40" s="216"/>
       <c r="E40" s="82">
         <f>E39*9%</f>
         <v>191632.5</v>
@@ -11763,24 +11773,24 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="215"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="216"/>
       <c r="E41" s="82">
         <f>E39*9%</f>
         <v>191632.5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="213" t="s">
+      <c r="A42" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="214"/>
-      <c r="D42" s="215"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="82">
         <f>SUM(E39:E41)</f>
         <v>2512515</v>
@@ -12040,12 +12050,12 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="213" t="s">
+      <c r="A58" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="214"/>
-      <c r="C58" s="214"/>
-      <c r="D58" s="215"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="216"/>
       <c r="E58" s="82">
         <f>SUM(E46:E57)</f>
         <v>975490</v>
@@ -12056,12 +12066,12 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="213" t="s">
+      <c r="A59" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="214"/>
-      <c r="C59" s="214"/>
-      <c r="D59" s="215"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="216"/>
       <c r="E59" s="82">
         <f>E58*9%</f>
         <v>87794.099999999991</v>
@@ -12072,12 +12082,12 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="213" t="s">
+      <c r="A60" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="214"/>
-      <c r="C60" s="214"/>
-      <c r="D60" s="215"/>
+      <c r="B60" s="215"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="216"/>
       <c r="E60" s="82">
         <f>E58*9%</f>
         <v>87794.099999999991</v>
@@ -12088,12 +12098,12 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="213" t="s">
+      <c r="A61" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="214"/>
-      <c r="C61" s="214"/>
-      <c r="D61" s="215"/>
+      <c r="B61" s="215"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="216"/>
       <c r="E61" s="82">
         <f>SUM(E58:E60)</f>
         <v>1151078.2000000002</v>
@@ -12189,56 +12199,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="7">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -12320,56 +12330,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="103">
         <f>SUM(G2)</f>
         <v>16842</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="103">
         <f>G3*9%</f>
         <v>1515.78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="103">
         <f>G3*9%</f>
         <v>1515.78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="103">
         <f>SUM(G3:G5)</f>
         <v>19873.559999999998</v>
@@ -12715,48 +12725,48 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="218"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="118">
         <f>SUM(E3:E18)</f>
         <v>599985</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="118">
         <f>E19*9%</f>
         <v>53998.65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="219" t="s">
+      <c r="A21" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="118">
         <f>E19*9%</f>
         <v>53998.65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="118">
         <f>SUM(E19:E21)</f>
         <v>707982.3</v>
@@ -12929,48 +12939,48 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="216" t="s">
+      <c r="A34" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="218"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="130">
         <f>SUM(E26:E33)</f>
         <v>1098200</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="118">
         <f>E34*9%</f>
         <v>98838</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="219" t="s">
+      <c r="A36" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
       <c r="E36" s="118">
         <f>E34*9%</f>
         <v>98838</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="219" t="s">
+      <c r="A37" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="118">
         <f>SUM(E34:E36)</f>
         <v>1295876</v>
@@ -13017,48 +13027,48 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
       <c r="E42" s="118">
         <f>E41</f>
         <v>15000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="219" t="s">
+      <c r="A43" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="118">
         <f>E42*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="118">
         <f>E42*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="219"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
       <c r="E45" s="118">
         <f>SUM(E42:E44)</f>
         <v>17700</v>
@@ -13133,10 +13143,10 @@
       <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1">
-      <c r="A53" s="220" t="s">
+      <c r="A53" s="221" t="s">
         <v>235</v>
       </c>
-      <c r="B53" s="221"/>
+      <c r="B53" s="222"/>
       <c r="C53" s="133">
         <f>C52-D49</f>
         <v>1846062.3</v>
@@ -13236,56 +13246,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="108">
         <f>SUM(G2:G2)</f>
         <v>13600</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="108">
         <f>G3*9%</f>
         <v>1224</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="108">
         <f>G3*9%</f>
         <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="108">
         <f>SUM(G3:G5)</f>
         <v>16048</v>
@@ -13502,48 +13512,48 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="66">
         <f>SUM(E2:E10)</f>
         <v>132270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="209"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="111">
         <f>E11*9%</f>
         <v>11904.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="209" t="s">
+      <c r="A13" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="209"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="111">
         <f>E11*9%</f>
         <v>11904.3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="111">
         <f>SUM(E11:E13)</f>
         <v>156078.59999999998</v>
@@ -13699,56 +13709,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="112">
         <f>SUM(G2:G5)</f>
         <v>104472</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="112">
         <f>G6*9%</f>
         <v>9402.48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="112">
         <f>G6*9%</f>
         <v>9402.48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="112">
         <f>SUM(G6:G8)</f>
         <v>123276.95999999999</v>
@@ -13855,48 +13865,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="188"/>
       <c r="E5" s="3">
         <f>SUM(E2:E4)</f>
         <v>20400</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
       <c r="E6" s="3">
         <f>E5*9%</f>
         <v>1836</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
       <c r="E7" s="3">
         <f>E5*9%</f>
         <v>1836</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
       <c r="E8" s="3">
         <f>SUM(E5:E7)</f>
         <v>24072</v>
@@ -14246,48 +14256,48 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="218"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="118">
         <f>SUM(E3:E18)</f>
         <v>599985</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="118">
         <f>E19*9%</f>
         <v>53998.65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="219" t="s">
+      <c r="A21" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="118">
         <f>E19*9%</f>
         <v>53998.65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="118">
         <f>SUM(E19:E21)</f>
         <v>707982.3</v>
@@ -14471,48 +14481,48 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="216" t="s">
+      <c r="A34" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="218"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="130">
         <f>SUM(E26:E33)</f>
         <v>1098200</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="118">
         <f>E34*9%</f>
         <v>98838</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="219" t="s">
+      <c r="A36" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
       <c r="E36" s="118">
         <f>E34*9%</f>
         <v>98838</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="219" t="s">
+      <c r="A37" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="118">
         <f>SUM(E34:E36)</f>
         <v>1295876</v>
@@ -14570,48 +14580,48 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
       <c r="E42" s="118">
         <f>E41</f>
         <v>15000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="219" t="s">
+      <c r="A43" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="118">
         <f>E42*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="118">
         <f>E42*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="219"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
       <c r="E45" s="118">
         <f>SUM(E42:E44)</f>
         <v>17700</v>
@@ -14692,10 +14702,10 @@
       <c r="D52" s="117"/>
     </row>
     <row r="53" spans="1:4" ht="15.6">
-      <c r="A53" s="220" t="s">
+      <c r="A53" s="221" t="s">
         <v>235</v>
       </c>
-      <c r="B53" s="221"/>
+      <c r="B53" s="222"/>
       <c r="C53" s="133">
         <f>B52-C49</f>
         <v>1846062.3</v>
@@ -14818,24 +14828,24 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="186" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="188"/>
       <c r="E5" s="135">
         <f>SUM(E2:E4)</f>
         <v>20400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="135">
         <v>2500</v>
       </c>
@@ -14845,48 +14855,48 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
       <c r="E7" s="135">
         <f>E5-E6</f>
         <v>17900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="188"/>
       <c r="E8" s="135">
         <f>E7*9%</f>
         <v>1611</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="223"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
       <c r="E9" s="135">
         <f>E7*9%</f>
         <v>1611</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="134">
         <f>SUM(E7:E9)</f>
         <v>21122</v>
@@ -15045,56 +15055,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="136">
         <f>SUM(G2:G5)</f>
         <v>276834</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="136">
         <f>G6*9%</f>
         <v>24915.059999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="136">
         <f>G6*9%</f>
         <v>24915.059999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="136">
         <f>SUM(G6:G8)</f>
         <v>326664.12</v>
@@ -15178,56 +15188,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="136">
         <f>SUM(G2)</f>
         <v>22456</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="136">
         <f>G3*9%</f>
         <v>2021.04</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="136">
         <f>G3*9%</f>
         <v>2021.04</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="136">
         <f>SUM(G3:G5)</f>
         <v>26498.080000000002</v>
@@ -15336,56 +15346,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>SUM(G2:G3)</f>
         <v>101228</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G4*9%</f>
         <v>9110.52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>G4*9%</f>
         <v>9110.52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="7">
         <f>SUM(G4:G6)</f>
         <v>119449.04000000001</v>
@@ -15467,56 +15477,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="137">
         <f>SUM(G2)</f>
         <v>9000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="137">
         <f>G3*9%</f>
         <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="137">
         <f>G3*9%</f>
         <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="137">
         <f>SUM(G3:G5)</f>
         <v>10620</v>
@@ -15648,56 +15658,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="138">
         <f>SUM(G2:G4)</f>
         <v>73084</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="138">
         <f>G5*9%</f>
         <v>6577.5599999999995</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="138">
         <f>G5*9%</f>
         <v>6577.5599999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="138">
         <f>SUM(G5:G7)</f>
         <v>86239.12</v>
@@ -15805,56 +15815,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="139">
         <f>SUM(G2:G3)</f>
         <v>13519</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="139">
         <f>G4*9%</f>
         <v>1216.71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="139">
         <f>G4*9%</f>
         <v>1216.71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="139">
         <f>SUM(G4:G6)</f>
         <v>15952.419999999998</v>
@@ -15937,56 +15947,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="140">
         <f>SUM(G2)</f>
         <v>6800</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="140">
         <f>G3*9%</f>
         <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="140">
         <f>G3*9%</f>
         <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="140">
         <f>SUM(G3:G5)</f>
         <v>8024</v>
@@ -16052,48 +16062,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="141">
         <f>SUM(E2)</f>
         <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="141">
         <f>E3*9%</f>
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="141">
         <f>E3*9%</f>
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="141">
         <f>SUM(E3:E5)</f>
         <v>1062</v>
@@ -16275,56 +16285,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="144">
         <f>SUM(G2:G6)</f>
         <v>218025</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="144">
         <f>G7*9%</f>
         <v>19622.25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="144">
         <f>G7*9%</f>
         <v>19622.25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="144">
         <f>SUM(G7:G9)</f>
         <v>257269.5</v>
@@ -16482,56 +16492,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="143">
         <f>SUM(G2:G5)</f>
         <v>165365</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="143">
         <f>G6*9%</f>
         <v>14882.849999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="143">
         <f>G6*9%</f>
         <v>14882.849999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="143">
         <f>SUM(G6:G8)</f>
         <v>195130.7</v>
@@ -16666,56 +16676,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="145">
         <f>SUM(G2:G4)</f>
         <v>115740</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="145">
         <f>G5*9%</f>
         <v>10416.6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="145">
         <f>G5*9%</f>
         <v>10416.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="145">
         <f>SUM(G5:G7)</f>
         <v>136573.20000000001</v>
@@ -16798,56 +16808,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="146">
         <f>SUM(G2:G2)</f>
         <v>360000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="146">
         <f>G3*9%</f>
         <v>32400</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="146">
         <f>G3*9%</f>
         <v>32400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="146">
         <f>SUM(G3:G5)</f>
         <v>424800</v>
@@ -16956,56 +16966,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="145">
         <f>SUM(G2:G3)</f>
         <v>72200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="145">
         <f>G4*9%</f>
         <v>6498</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="145">
         <f>G4*9%</f>
         <v>6498</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="145">
         <f>SUM(G4:G6)</f>
         <v>85196</v>
@@ -17188,56 +17198,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="7">
         <f>SUM(G2:G6)</f>
         <v>172184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="7">
         <f>G7*9%</f>
         <v>15496.56</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="7">
         <f>G7*9%</f>
         <v>15496.56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="7">
         <f>SUM(G7:G9)</f>
         <v>203177.12</v>
@@ -17387,56 +17397,56 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="188" t="s">
+      <c r="A22" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="190"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="191"/>
       <c r="G22" s="7">
         <f>SUM(G17:G21)</f>
         <v>176664</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="190"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="7">
         <f>G22*9%</f>
         <v>15899.76</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="189"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="190"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="191"/>
       <c r="G24" s="7">
         <f>G22*9%</f>
         <v>15899.76</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="190"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="191"/>
       <c r="G25" s="7">
         <f>SUM(G22:G24)</f>
         <v>208463.52000000002</v>
@@ -17574,56 +17584,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="147">
         <f>SUM(G2:G4)</f>
         <v>752205</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="147">
         <f>G5*9%</f>
         <v>67698.45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="147">
         <f>G5*9%</f>
         <v>67698.45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="147">
         <f>SUM(G5:G7)</f>
         <v>887601.89999999991</v>
@@ -17707,56 +17717,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="148">
         <f>SUM(G2)</f>
         <v>28070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="148">
         <f>G3*9%</f>
         <v>2526.2999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="148">
         <f>G3*9%</f>
         <v>2526.2999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="148">
         <f>SUM(G3:G5)</f>
         <v>33122.6</v>
@@ -17962,56 +17972,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="149">
         <f>SUM(G2:G7)</f>
         <v>355834</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="149">
         <f>G8*9%</f>
         <v>32025.059999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="149">
         <f>G8*9%</f>
         <v>32025.059999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="149">
         <f>SUM(G8:G10)</f>
         <v>419884.12</v>
@@ -18143,56 +18153,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="149">
         <f>SUM(G2:G4)</f>
         <v>74687</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="149">
         <f>G5*9%</f>
         <v>6721.83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="149">
         <f>G5*9%</f>
         <v>6721.83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="149">
         <f>SUM(G5:G7)</f>
         <v>88130.66</v>
@@ -18405,56 +18415,56 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="154">
         <f>SUM(G2:G7)</f>
         <v>279966</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="154">
         <f>G8*9%</f>
         <v>25196.94</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="154">
         <f>G8*9%</f>
         <v>25196.94</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="154">
         <f>SUM(G8:G10)</f>
         <v>330359.88</v>
@@ -18586,56 +18596,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="154">
         <f>SUM(G2:G4)</f>
         <v>125686</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="154">
         <f>G5*9%</f>
         <v>11311.74</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="154">
         <f>G5*9%</f>
         <v>11311.74</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="154">
         <f>SUM(G5:G7)</f>
         <v>148309.47999999998</v>
@@ -18683,7 +18693,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="225">
+      <c r="A2" s="226">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -18701,7 +18711,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="226"/>
+      <c r="A3" s="227"/>
       <c r="B3" s="15" t="s">
         <v>310</v>
       </c>
@@ -18753,48 +18763,48 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
       <c r="E6" s="155">
         <f>SUM(E2:E5)</f>
         <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
       <c r="E7" s="155">
         <f>E6*9%</f>
         <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
       <c r="E8" s="155">
         <f>E6*9%</f>
         <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
       <c r="E9" s="155">
         <f>SUM(E6:E8)</f>
         <v>8496</v>
@@ -18977,56 +18987,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="156">
         <f>SUM(G2:G6)</f>
         <v>316238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="156">
         <f>G7*9%</f>
         <v>28461.42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="156">
         <f>G7*9%</f>
         <v>28461.42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="156">
         <f>SUM(G7:G9)</f>
         <v>373160.83999999997</v>
@@ -19232,56 +19242,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="157">
         <f>SUM(G2:G7)</f>
         <v>252173</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="157">
         <f>G8*9%</f>
         <v>22695.57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="157">
         <f>G8*9%</f>
         <v>22695.57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="157">
         <f>SUM(G8:G10)</f>
         <v>297564.14</v>
@@ -19385,56 +19395,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="159">
         <f>SUM(G2:G3)</f>
         <v>26876</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="159">
         <f>G4*9%</f>
         <v>2418.8399999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="159">
         <f>G4*9%</f>
         <v>2418.8399999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="159">
         <f>SUM(G4:G6)</f>
         <v>31713.68</v>
@@ -19516,56 +19526,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="7">
         <f>SUM(G2)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>G3*9%</f>
         <v>27000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G3*9%</f>
         <v>27000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>SUM(G3:G5)</f>
         <v>354000</v>
@@ -19650,56 +19660,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="159">
         <f>SUM(G2)</f>
         <v>13600</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="159">
         <f>G3*9%</f>
         <v>1224</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="159">
         <f>G3*9%</f>
         <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="159">
         <f>SUM(G3:G5)</f>
         <v>16048</v>
@@ -19855,56 +19865,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="170">
         <f>SUM(G2:G5)</f>
         <v>157328</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="170">
         <f>G6*9%</f>
         <v>14159.519999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="170">
         <f>G6*9%</f>
         <v>14159.519999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="170">
         <f>SUM(G6:G8)</f>
         <v>185647.03999999998</v>
@@ -19987,56 +19997,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="171">
         <f>SUM(G2:G2)</f>
         <v>9400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="171">
         <f>G3*9%</f>
         <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="171">
         <f>G3*9%</f>
         <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="171">
         <f>SUM(G3:G5)</f>
         <v>11092</v>
@@ -20304,48 +20314,48 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="227" t="s">
+      <c r="A14" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="227"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
       <c r="E14" s="161">
         <f>SUM(E2:E13)</f>
         <v>351000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
       <c r="E15" s="161">
         <f>E14*9%</f>
         <v>31590</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="227" t="s">
+      <c r="A16" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
       <c r="E16" s="161">
         <f>E14*9%</f>
         <v>31590</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="227" t="s">
+      <c r="A17" s="228" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
       <c r="E17" s="161">
         <f>SUM(E14:E16)</f>
         <v>414180</v>
@@ -20454,56 +20464,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="172">
         <f>SUM(G2:G3)</f>
         <v>90816</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="172">
         <f>G4*9%</f>
         <v>8173.44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="172">
         <f>G4*9%</f>
         <v>8173.44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="172">
         <f>SUM(G4:G6)</f>
         <v>107162.88</v>
@@ -20608,56 +20618,56 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="173">
         <f>SUM(G2:G3)</f>
         <v>58450</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="173">
         <f>G4*9%</f>
         <v>5260.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="173">
         <f>G4*9%</f>
         <v>5260.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="173">
         <f>SUM(G4:G6)</f>
         <v>68971</v>
@@ -20791,56 +20801,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="174">
         <f>SUM(G2:G4)</f>
         <v>53056</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="174">
         <f>G5*9%</f>
         <v>4775.04</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="174">
         <f>G5*9%</f>
         <v>4775.04</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="174">
         <f>SUM(G5:G7)</f>
         <v>62606.080000000002</v>
@@ -20971,56 +20981,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="174">
         <f>SUM(G2:G4)</f>
         <v>67868</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="174">
         <f>G5*9%</f>
         <v>6108.12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="174">
         <f>G5*9%</f>
         <v>6108.12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="174">
         <f>SUM(G5:G7)</f>
         <v>80084.239999999991</v>
@@ -21370,48 +21380,48 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="218"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="178">
         <f>SUM(E3:E18)</f>
         <v>599985</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="178">
         <f>E19*9%</f>
         <v>53998.65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="219" t="s">
+      <c r="A21" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="178">
         <f>E19*9%</f>
         <v>53998.65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="178">
         <f>SUM(E19:E21)</f>
         <v>707982.3</v>
@@ -21595,48 +21605,48 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="216" t="s">
+      <c r="A34" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="218"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="130">
         <f>SUM(E26:E33)</f>
         <v>1098200</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="178">
         <f>E34*9%</f>
         <v>98838</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="219" t="s">
+      <c r="A36" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
       <c r="E36" s="178">
         <f>E34*9%</f>
         <v>98838</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="219" t="s">
+      <c r="A37" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="178">
         <f>SUM(E34:E36)</f>
         <v>1295876</v>
@@ -21694,48 +21704,48 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
       <c r="E42" s="178">
         <f>E41</f>
         <v>15000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="219" t="s">
+      <c r="A43" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="178">
         <f>E42*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="178">
         <f>E42*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="219"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
       <c r="E45" s="178">
         <f>SUM(E42:E44)</f>
         <v>17700</v>
@@ -21810,11 +21820,11 @@
       <c r="A53" s="183" t="s">
         <v>354</v>
       </c>
-      <c r="B53" s="220">
+      <c r="B53" s="221">
         <f>B52-C49-C50</f>
         <v>1346062.3</v>
       </c>
-      <c r="C53" s="221"/>
+      <c r="C53" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -21845,7 +21855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -21907,56 +21917,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="176">
         <f>SUM(G2)</f>
         <v>13042</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="176">
         <f>G3*9%</f>
         <v>1173.78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="176">
         <f>G3*9%</f>
         <v>1173.78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="176">
         <f>SUM(G3:G5)</f>
         <v>15389.560000000001</v>
@@ -22068,56 +22078,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="7">
         <f>SUM(G2:G3)</f>
         <v>35614</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="7">
         <f>G4*9%</f>
         <v>3205.2599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="7">
         <f>G4*9%</f>
         <v>3205.2599999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="7">
         <f>SUM(G4:G6)</f>
         <v>42024.520000000004</v>
@@ -22318,56 +22328,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="179">
         <f>SUM(G2:G7)</f>
         <v>168571</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="179">
         <f>G8*9%</f>
         <v>15171.39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="179">
         <f>G8*9%</f>
         <v>15171.39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="179">
         <f>SUM(G8:G10)</f>
         <v>198913.78000000003</v>
@@ -22389,7 +22399,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22475,56 +22485,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="184">
         <f>SUM(G2:G3)</f>
         <v>99123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="184">
         <f>G4*9%</f>
         <v>8921.07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="184">
         <f>G4*9%</f>
         <v>8921.07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="184">
         <f>SUM(G4:G6)</f>
         <v>116965.14000000001</v>
@@ -22542,6 +22552,117 @@
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A1" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34.200000000000003" customHeight="1">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="237">
+        <v>1</v>
+      </c>
+      <c r="D2" s="237">
+        <v>18560</v>
+      </c>
+      <c r="E2" s="237">
+        <f>C2*D2</f>
+        <v>18560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="93">
+        <f>SUM(E2)</f>
+        <v>18560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="93">
+        <f>E3*9%</f>
+        <v>1670.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="93">
+        <f>E3*9%</f>
+        <v>1670.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="93">
+        <f>SUM(E3:E5)</f>
+        <v>21900.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -22585,10 +22706,10 @@
       <c r="C2" s="38">
         <v>1</v>
       </c>
-      <c r="D2" s="198">
+      <c r="D2" s="199">
         <v>490000</v>
       </c>
-      <c r="E2" s="198">
+      <c r="E2" s="199">
         <f>C2*D2</f>
         <v>490000</v>
       </c>
@@ -22603,8 +22724,8 @@
       <c r="C3" s="38">
         <v>1</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
     </row>
     <row r="4" spans="1:5" ht="31.2">
       <c r="A4" s="38">
@@ -22625,48 +22746,48 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
       <c r="E5" s="36">
         <f>SUM(E2:E4)</f>
         <v>514000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
       <c r="E6" s="36">
         <f>E5*9%</f>
         <v>46260</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="36">
         <f>E5*9%</f>
         <v>46260</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6">
-      <c r="A8" s="209" t="s">
+      <c r="A8" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="36">
         <f>SUM(E5:E7)</f>
         <v>606520</v>
@@ -22685,7 +22806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -22730,10 +22851,10 @@
       <c r="C2" s="38">
         <v>1</v>
       </c>
-      <c r="D2" s="198">
+      <c r="D2" s="199">
         <v>490000</v>
       </c>
-      <c r="E2" s="198">
+      <c r="E2" s="199">
         <f>C2*D2</f>
         <v>490000</v>
       </c>
@@ -22748,8 +22869,8 @@
       <c r="C3" s="38">
         <v>1</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
     </row>
     <row r="4" spans="1:5" ht="31.2">
       <c r="A4" s="38">
@@ -22788,48 +22909,48 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
       <c r="E6" s="36">
         <f>SUM(E2:E5)</f>
         <v>592000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="36">
         <f>E6*9%</f>
         <v>53280</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6">
-      <c r="A8" s="209" t="s">
+      <c r="A8" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="36">
         <f>E6*9%</f>
         <v>53280</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="209"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="36">
         <f>SUM(E6:E8)</f>
         <v>698560</v>
@@ -22849,7 +22970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -22899,48 +23020,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="7">
         <f>SUM(E2:E2)</f>
         <v>17850</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="7">
         <f>E3*9%</f>
         <v>1606.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="7">
         <f>E3*9%</f>
         <v>1606.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="7">
         <f>SUM(E3:E5)</f>
         <v>21063</v>
@@ -23169,7 +23290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -23650,12 +23771,12 @@
       <c r="I17" s="99"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="229"/>
-      <c r="C18" s="229"/>
-      <c r="D18" s="230"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="101">
         <f>SUM(E2:E17)</f>
         <v>2279250</v>
@@ -23665,12 +23786,12 @@
       <c r="H18" s="102"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="228" t="s">
+      <c r="A19" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="229"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="230"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="101">
         <f>E18*9%</f>
         <v>205132.5</v>
@@ -23680,12 +23801,12 @@
       <c r="H19" s="102"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="228" t="s">
+      <c r="A20" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="229"/>
-      <c r="C20" s="229"/>
-      <c r="D20" s="230"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="101">
         <f>E18*9%</f>
         <v>205132.5</v>
@@ -23695,12 +23816,12 @@
       <c r="H20" s="102"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="228" t="s">
+      <c r="A21" s="229" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="229"/>
-      <c r="C21" s="229"/>
-      <c r="D21" s="230"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="101">
         <f>SUM(E18:E20)</f>
         <v>2689515</v>
@@ -23720,7 +23841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -23736,12 +23857,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="233" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -23942,12 +24063,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="196" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="150">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -23961,12 +24082,12 @@
       <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="234" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="235"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="236"/>
       <c r="E15" s="151"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -24221,60 +24342,60 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="196" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="198"/>
       <c r="E30" s="150">
         <f>SUM(E17:E29)</f>
         <v>735560</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="196" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="198"/>
       <c r="E31" s="150">
         <f>E13+E30</f>
         <v>1819490</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6">
-      <c r="A32" s="195" t="s">
+      <c r="A32" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="196"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
       <c r="E32" s="150">
         <f>E31*9%</f>
         <v>163754.1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6">
-      <c r="A33" s="195" t="s">
+      <c r="A33" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="196"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="198"/>
       <c r="E33" s="150">
         <f>E31*9%</f>
         <v>163754.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="196" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="198"/>
       <c r="E34" s="150">
         <f>SUM(E31:E33)</f>
         <v>2146998.2000000002</v>
@@ -24288,10 +24409,10 @@
       <c r="E35" s="151"/>
     </row>
     <row r="36" spans="1:5" ht="15.6">
-      <c r="A36" s="231" t="s">
+      <c r="A36" s="232" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="231"/>
+      <c r="B36" s="232"/>
       <c r="C36" s="153"/>
       <c r="D36" s="153"/>
       <c r="E36" s="151"/>
@@ -24312,7 +24433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -24330,12 +24451,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
       <c r="E1" s="163"/>
     </row>
     <row r="2" spans="1:5">
@@ -24536,12 +24657,12 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="188"/>
       <c r="E13" s="167">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -24555,12 +24676,12 @@
       <c r="E14" s="169"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="189" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="191"/>
       <c r="E15" s="168"/>
     </row>
     <row r="16" spans="1:5">
@@ -24815,60 +24936,60 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="186" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
       <c r="E30" s="167">
         <f>SUM(E17:E29)</f>
         <v>735560</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="186" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="187"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="188"/>
       <c r="E31" s="167">
         <f>E13+E30</f>
         <v>1819490</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="188"/>
       <c r="E32" s="167">
         <f>E31*9%</f>
         <v>163754.1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="188"/>
       <c r="E33" s="167">
         <f>E31*9%</f>
         <v>163754.1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="185" t="s">
+      <c r="A34" s="186" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="187"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
       <c r="E34" s="167">
         <f>SUM(E31:E33)</f>
         <v>2146998.2000000002</v>
